--- a/data/outputs/OR/26.xlsx
+++ b/data/outputs/OR/26.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ124"/>
+  <dimension ref="A1:BR124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +934,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1346,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1745,6 +1754,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1954,6 +1964,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2155,6 +2166,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2368,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2573,6 +2586,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2782,6 +2796,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>22112060</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2991,6 +3010,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3228,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3405,6 +3426,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3618,6 +3640,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3827,6 +3850,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4028,6 +4052,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4233,6 +4258,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4434,6 +4460,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4520,7 +4547,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Baykasoglu, Adil/0000-0002-4952-7239; </t>
+          <t>Baykasoglu, Adil/0000-0002-4952-7239;</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr"/>
@@ -4643,6 +4670,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4852,6 +4880,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5065,6 +5094,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5266,6 +5296,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5471,6 +5502,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5672,6 +5704,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5758,7 +5791,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Baykasoglu, Adil/0000-0002-4952-7239; Selim, Hasan/0000-0002-6838-3146; </t>
+          <t>Baykasoglu, Adil/0000-0002-4952-7239; Selim, Hasan/0000-0002-6838-3146;</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr"/>
@@ -5881,6 +5914,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6094,6 +6128,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6295,6 +6330,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6504,6 +6540,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6717,6 +6754,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>35384286</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6926,6 +6968,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7131,6 +7174,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7332,6 +7376,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7545,6 +7590,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7750,6 +7796,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7955,6 +8002,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8160,6 +8208,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8377,6 +8426,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8459,7 +8509,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Qin, Hantang/0000-0003-4180-7911; Dong, Jingyan/0000-0003-2224-9168; </t>
+          <t>Qin, Hantang/0000-0003-4180-7911; Dong, Jingyan/0000-0003-2224-9168;</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -8598,6 +8648,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8815,6 +8866,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9028,6 +9080,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9229,6 +9282,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9442,6 +9496,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9643,6 +9698,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9848,6 +9904,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10049,6 +10106,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10254,6 +10312,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10459,6 +10518,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10668,6 +10728,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10877,6 +10938,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11094,6 +11156,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11307,6 +11370,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11508,6 +11572,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11713,6 +11778,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11926,6 +11992,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12139,6 +12206,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12348,6 +12416,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12565,6 +12634,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12782,6 +12852,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12991,6 +13062,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13208,6 +13280,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13417,6 +13490,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13626,6 +13700,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>2598957</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13827,6 +13906,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14028,6 +14108,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14245,6 +14326,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14466,6 +14548,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14679,6 +14762,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14904,6 +14988,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>3036475</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15111,6 +15200,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>3798764</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15310,6 +15404,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15517,6 +15612,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15716,6 +15812,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15915,6 +16012,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16118,6 +16216,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16325,6 +16424,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16524,6 +16624,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16723,6 +16824,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16930,6 +17032,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17133,6 +17236,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17344,6 +17448,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17543,6 +17648,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17750,6 +17856,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17949,6 +18056,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18156,6 +18264,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18371,6 +18480,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18586,6 +18696,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18785,6 +18896,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18996,6 +19108,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19195,6 +19308,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19406,6 +19520,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19609,6 +19724,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19820,6 +19936,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20035,6 +20152,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20242,6 +20360,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20449,6 +20568,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>3002723</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20652,6 +20776,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20867,6 +20992,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21074,6 +21200,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21285,6 +21412,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21484,6 +21612,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21691,6 +21820,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21890,6 +22020,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22089,6 +22220,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22292,6 +22424,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22503,6 +22636,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22702,6 +22836,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22909,6 +23044,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23124,6 +23260,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23331,6 +23468,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23530,6 +23668,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23737,6 +23876,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23948,6 +24088,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>3763697</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24155,6 +24300,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24350,6 +24496,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24565,6 +24712,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24776,6 +24924,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24975,6 +25124,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25174,6 +25324,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25381,6 +25532,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25596,6 +25748,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25795,6 +25948,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26006,6 +26160,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26221,6 +26376,11 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t>2979461</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
